--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1839695.893327679</v>
+        <v>1835437.627674444</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>196.246048878473</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -709,13 +709,13 @@
         <v>1.36059768091647</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459283</v>
+        <v>100.2359934050222</v>
       </c>
       <c r="T2" t="n">
         <v>212.7466796050973</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.156519019379</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>136.0785727665282</v>
       </c>
       <c r="H3" t="n">
-        <v>98.51394015369122</v>
+        <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
         <v>45.84481919370735</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353349</v>
+        <v>20.11551727184605</v>
       </c>
       <c r="S3" t="n">
         <v>148.187383735635</v>
@@ -819,28 +819,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7984799768616</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775194</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894001</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.5352037822505</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.4144181712553</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>71.59536964558016</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>26.68847580824262</v>
       </c>
     </row>
     <row r="5">
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>96.81363086015833</v>
+        <v>341.7457780178011</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>61.59020550332201</v>
       </c>
       <c r="F7" t="n">
-        <v>41.86455098728211</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>169.7033664532629</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>195.4174818331939</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>82.63690963961774</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>158.8451251376521</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833859</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>1.619672595757761</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>2.60701007315258</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>115.7063133373723</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>143.3175246302644</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>176.76214411214</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>18.16423677622371</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>201.7490817309711</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U31" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>44.7513807668926</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>92.87435055577278</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>145.2857567969021</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>41.74133133758713</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465739</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>63.69463930750331</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>176.5196562849262</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2262.062400382721</v>
+        <v>2063.834068182243</v>
       </c>
       <c r="C2" t="n">
         <v>2063.834068182243</v>
@@ -4333,19 +4333,19 @@
         <v>72.11519083088521</v>
       </c>
       <c r="K2" t="n">
-        <v>151.950669111822</v>
+        <v>472.8546275572751</v>
       </c>
       <c r="L2" t="n">
-        <v>701.3800037181045</v>
+        <v>1022.283962163558</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.332547639727</v>
+        <v>1205.218107927276</v>
       </c>
       <c r="N2" t="n">
-        <v>1952.814022680361</v>
+        <v>1828.69958296791</v>
       </c>
       <c r="O2" t="n">
-        <v>2494.726756291969</v>
+        <v>2372.247822165005</v>
       </c>
       <c r="P2" t="n">
         <v>2602.377499016428</v>
@@ -4357,25 +4357,25 @@
         <v>2633.671635888808</v>
       </c>
       <c r="S2" t="n">
-        <v>2476.958036347466</v>
+        <v>2532.423157701917</v>
       </c>
       <c r="T2" t="n">
-        <v>2262.062400382721</v>
+        <v>2317.527521737172</v>
       </c>
       <c r="U2" t="n">
-        <v>2262.062400382721</v>
+        <v>2063.834068182243</v>
       </c>
       <c r="V2" t="n">
-        <v>2262.062400382721</v>
+        <v>2063.834068182243</v>
       </c>
       <c r="W2" t="n">
-        <v>2262.062400382721</v>
+        <v>2063.834068182243</v>
       </c>
       <c r="X2" t="n">
-        <v>2262.062400382721</v>
+        <v>2063.834068182243</v>
       </c>
       <c r="Y2" t="n">
-        <v>2262.062400382721</v>
+        <v>2063.834068182243</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>965.1304038988715</v>
+        <v>966.6504081935055</v>
       </c>
       <c r="C3" t="n">
-        <v>790.6773746177445</v>
+        <v>792.1973789123786</v>
       </c>
       <c r="D3" t="n">
-        <v>641.7429649564932</v>
+        <v>643.2629692511273</v>
       </c>
       <c r="E3" t="n">
-        <v>482.5055099510377</v>
+        <v>484.0255142456718</v>
       </c>
       <c r="F3" t="n">
-        <v>335.9709519779227</v>
+        <v>337.4909562725568</v>
       </c>
       <c r="G3" t="n">
-        <v>198.5178481733488</v>
+        <v>200.0378524679829</v>
       </c>
       <c r="H3" t="n">
         <v>99.00881771507483</v>
@@ -4409,19 +4409,19 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961285</v>
+        <v>170.2762045496335</v>
       </c>
       <c r="K3" t="n">
-        <v>118.4560672099614</v>
+        <v>497.8519368624348</v>
       </c>
       <c r="L3" t="n">
-        <v>604.0028878405068</v>
+        <v>999.722330600029</v>
       </c>
       <c r="M3" t="n">
-        <v>1241.641187275395</v>
+        <v>1176.312616922418</v>
       </c>
       <c r="N3" t="n">
-        <v>1437.313937931689</v>
+        <v>1827.237634015651</v>
       </c>
       <c r="O3" t="n">
         <v>1984.020177892692</v>
@@ -4433,28 +4433,28 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2613.207268371013</v>
+        <v>2614.727272665647</v>
       </c>
       <c r="S3" t="n">
-        <v>2463.523042375421</v>
+        <v>2465.043046670055</v>
       </c>
       <c r="T3" t="n">
-        <v>2266.48656248056</v>
+        <v>2268.006566775194</v>
       </c>
       <c r="U3" t="n">
-        <v>2038.34700484937</v>
+        <v>2039.867009144004</v>
       </c>
       <c r="V3" t="n">
-        <v>1803.194896617628</v>
+        <v>1804.714900912262</v>
       </c>
       <c r="W3" t="n">
-        <v>1548.957539889426</v>
+        <v>1550.47754418406</v>
       </c>
       <c r="X3" t="n">
-        <v>1341.106039683893</v>
+        <v>1342.626043978527</v>
       </c>
       <c r="Y3" t="n">
-        <v>1133.34574091894</v>
+        <v>1134.865745213574</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>225.6112599180104</v>
+        <v>835.1734420192665</v>
       </c>
       <c r="C4" t="n">
-        <v>225.6112599180104</v>
+        <v>666.2372590913596</v>
       </c>
       <c r="D4" t="n">
-        <v>225.6112599180104</v>
+        <v>516.1206196790239</v>
       </c>
       <c r="E4" t="n">
-        <v>225.6112599180104</v>
+        <v>368.2075260966308</v>
       </c>
       <c r="F4" t="n">
-        <v>225.6112599180104</v>
+        <v>221.3175785987204</v>
       </c>
       <c r="G4" t="n">
-        <v>225.6112599180104</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
-        <v>71.26936095148351</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I4" t="n">
-        <v>71.26936095148351</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J4" t="n">
         <v>52.70091953961285</v>
@@ -4512,28 +4512,28 @@
         <v>1043.779963221469</v>
       </c>
       <c r="R4" t="n">
-        <v>912.8607263634885</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="S4" t="n">
-        <v>705.2494094117203</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="T4" t="n">
-        <v>479.5782799458059</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="U4" t="n">
-        <v>407.2597247482502</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="V4" t="n">
-        <v>407.2597247482502</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="W4" t="n">
-        <v>407.2597247482502</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="X4" t="n">
-        <v>407.2597247482502</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="Y4" t="n">
-        <v>407.2597247482502</v>
+        <v>1016.821906849506</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1408.399556799664</v>
+        <v>1132.072391409515</v>
       </c>
       <c r="C5" t="n">
-        <v>1039.437039859252</v>
+        <v>763.1098744691033</v>
       </c>
       <c r="D5" t="n">
-        <v>681.1713412525019</v>
+        <v>404.8441758623528</v>
       </c>
       <c r="E5" t="n">
-        <v>681.1713412525019</v>
+        <v>404.8441758623528</v>
       </c>
       <c r="F5" t="n">
-        <v>270.1854364628943</v>
+        <v>397.8986751131493</v>
       </c>
       <c r="G5" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H5" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
@@ -4570,19 +4570,19 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>477.4022825530416</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L5" t="n">
-        <v>1030.215540799241</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M5" t="n">
-        <v>1216.914953624649</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N5" t="n">
-        <v>1844.222621684495</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O5" t="n">
-        <v>2170.746810619753</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P5" t="n">
         <v>2600.061856959047</v>
@@ -4594,25 +4594,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.7680521339</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="W5" t="n">
-        <v>1794.999396863786</v>
+        <v>2282.277321710528</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.999396863786</v>
+        <v>1908.811563449448</v>
       </c>
       <c r="Y5" t="n">
-        <v>1794.999396863786</v>
+        <v>1518.672231473637</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>542.6908454331073</v>
+        <v>132.7878360902098</v>
       </c>
       <c r="C7" t="n">
-        <v>373.7546625052004</v>
+        <v>132.7878360902098</v>
       </c>
       <c r="D7" t="n">
-        <v>373.7546625052004</v>
+        <v>132.7878360902098</v>
       </c>
       <c r="E7" t="n">
-        <v>373.7546625052004</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="F7" t="n">
-        <v>331.4672372655215</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="G7" t="n">
-        <v>331.4672372655215</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="H7" t="n">
-        <v>177.2125941652866</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="I7" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="J7" t="n">
         <v>52.70091953961285</v>
@@ -4758,19 +4758,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U7" t="n">
-        <v>763.4834245766374</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V7" t="n">
-        <v>763.4834245766374</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W7" t="n">
-        <v>763.4834245766374</v>
+        <v>763.218430961997</v>
       </c>
       <c r="X7" t="n">
-        <v>763.4834245766374</v>
+        <v>535.2288800639797</v>
       </c>
       <c r="Y7" t="n">
-        <v>542.6908454331073</v>
+        <v>314.4363009204495</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1907.973785425286</v>
+        <v>1761.168212069778</v>
       </c>
       <c r="C8" t="n">
-        <v>1539.011268484874</v>
+        <v>1392.205695129366</v>
       </c>
       <c r="D8" t="n">
-        <v>1180.745569878124</v>
+        <v>1033.939996522616</v>
       </c>
       <c r="E8" t="n">
-        <v>794.9573172798794</v>
+        <v>648.1517439243717</v>
       </c>
       <c r="F8" t="n">
-        <v>788.0118165306759</v>
+        <v>237.1658391347641</v>
       </c>
       <c r="G8" t="n">
-        <v>370.9240347671034</v>
+        <v>224.1184614115956</v>
       </c>
       <c r="H8" t="n">
         <v>52.70091953961285</v>
@@ -4804,19 +4804,19 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K8" t="n">
-        <v>392.0318096650763</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>531.3604655063294</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M8" t="n">
-        <v>1163.078276489641</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N8" t="n">
-        <v>1790.385944549488</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O8" t="n">
         <v>1960.554969866447</v>
@@ -4840,16 +4840,16 @@
         <v>2478.830939477471</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.830939477471</v>
+        <v>2147.7680521339</v>
       </c>
       <c r="W8" t="n">
-        <v>2281.439543686366</v>
+        <v>2147.7680521339</v>
       </c>
       <c r="X8" t="n">
-        <v>1907.973785425286</v>
+        <v>2147.7680521339</v>
       </c>
       <c r="Y8" t="n">
-        <v>1907.973785425286</v>
+        <v>2147.7680521339</v>
       </c>
     </row>
     <row r="9">
@@ -4892,7 +4892,7 @@
         <v>1005.150115568437</v>
       </c>
       <c r="M9" t="n">
-        <v>1232.27200203395</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N9" t="n">
         <v>1430.928743686615</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>922.1576397183603</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="C10" t="n">
-        <v>753.2214567904534</v>
+        <v>497.620600032252</v>
       </c>
       <c r="D10" t="n">
-        <v>603.1048173781177</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E10" t="n">
-        <v>455.1917237957246</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F10" t="n">
-        <v>308.3017762978142</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
-        <v>308.3017762978142</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0471331975793</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
         <v>52.70091953961285</v>
@@ -4986,28 +4986,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R10" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S10" t="n">
-        <v>922.1576397183603</v>
+        <v>892.1859796477939</v>
       </c>
       <c r="T10" t="n">
-        <v>922.1576397183603</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="U10" t="n">
-        <v>922.1576397183603</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="V10" t="n">
-        <v>922.1576397183603</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="W10" t="n">
-        <v>922.1576397183603</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="X10" t="n">
-        <v>922.1576397183603</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="Y10" t="n">
-        <v>922.1576397183603</v>
+        <v>666.5567829601589</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5357,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1686.749820929699</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1397.332650892738</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1169.343099994721</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.5505208511905</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5594,22 +5594,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770323</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>634.3345878491255</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>634.3345878491255</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2330.088019603117</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2110.486554626058</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1821.411327970255</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1566.726839764368</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.70136564882</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072721</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>945.402603663004</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C22" t="n">
-        <v>776.4664207350971</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D22" t="n">
-        <v>776.4664207350971</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5940,22 +5940,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4262.384993990607</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4262.384993990607</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958734</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C28" t="n">
-        <v>633.9926444679666</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>483.8760050556308</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>335.9629114732377</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261132</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4690.833152398593</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U31" t="n">
-        <v>4517.069482196493</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.384993990607</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.967823953646</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055629</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912098</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2418.621364762389</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>2913.946970978148</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3511.3254586047</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>4138.923422159307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>639.6425904082687</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C34" t="n">
-        <v>470.7064074803617</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2401.759668664207</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2401.759668664207</v>
       </c>
       <c r="T34" t="n">
-        <v>2103.250070178706</v>
+        <v>2182.158203687148</v>
       </c>
       <c r="U34" t="n">
-        <v>1814.174843522904</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V34" t="n">
-        <v>1559.490355317017</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W34" t="n">
-        <v>1270.073185280056</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X34" t="n">
-        <v>1042.083634382039</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y34" t="n">
-        <v>821.2910552385084</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,22 +7019,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7174,7 +7174,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>430.7826650753331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E40" t="n">
-        <v>282.8695714929399</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>135.9796239950296</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>3210.485548300424</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>3482.038612289356</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>3482.038612289356</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1021.293348608258</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>852.3571656803509</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>702.2405262680152</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>554.3274326856173</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>407.4374851877069</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>240.2413859025868</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1202.941813438498</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7642,25 +7642,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075806</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7669,7 +7669,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>379.1481554188186</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>123.7160950777412</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8057,22 +8057,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.3281211888728</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>354.3518876195716</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>459.8507741787274</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8218,22 +8218,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>410.9118391044057</v>
       </c>
       <c r="O5" t="n">
-        <v>157.9345087053518</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>237.91261167423</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263505</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-1.161787173818072e-12</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823058</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>40.25407754796456</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>250.5179707280703</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>143.8269525734166</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>65.31997266427226</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>3.116438016304755</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>40.64330621514821</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>127.2568112467075</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>84.77391660561992</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.62386594322908</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>124.5310997715155</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>72.11969353038614</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>76.60007353872058</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>873782.0343168798</v>
+        <v>873782.0343168799</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>873782.03431688</v>
+        <v>873782.0343168799</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>873782.0343168799</v>
+        <v>873782.03431688</v>
       </c>
     </row>
     <row r="14">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="G2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907535</v>
       </c>
       <c r="L2" t="n">
         <v>544823.9547907538</v>
@@ -26352,7 +26352,7 @@
         <v>544823.9547907537</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="P2" t="n">
         <v>544823.9547907539</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765847</v>
+        <v>775688.3472765845</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26423,31 +26423,31 @@
         <v>189891.8124216188</v>
       </c>
       <c r="D4" t="n">
-        <v>189891.8124216188</v>
+        <v>189891.8124216189</v>
       </c>
       <c r="E4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707328</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
         <v>6897.424496707359</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-510644.9545949195</v>
+        <v>-510644.9545949193</v>
       </c>
       <c r="C6" t="n">
-        <v>272787.0573907968</v>
+        <v>272787.0573907973</v>
       </c>
       <c r="D6" t="n">
-        <v>277693.3043992969</v>
+        <v>277693.3043992971</v>
       </c>
       <c r="E6" t="n">
-        <v>-338884.3468064452</v>
+        <v>-339231.7260608022</v>
       </c>
       <c r="F6" t="n">
-        <v>436804.0004701397</v>
+        <v>436456.6212157824</v>
       </c>
       <c r="G6" t="n">
-        <v>436804.0004701395</v>
+        <v>436456.6212157825</v>
       </c>
       <c r="H6" t="n">
-        <v>436804.0004701394</v>
+        <v>436456.6212157825</v>
       </c>
       <c r="I6" t="n">
-        <v>436804.0004701393</v>
+        <v>436456.6212157822</v>
       </c>
       <c r="J6" t="n">
-        <v>264443.0080698587</v>
+        <v>264095.6288155017</v>
       </c>
       <c r="K6" t="n">
-        <v>436804.0004701393</v>
+        <v>436456.6212157821</v>
       </c>
       <c r="L6" t="n">
-        <v>436804.0004701393</v>
+        <v>436456.6212157823</v>
       </c>
       <c r="M6" t="n">
-        <v>308726.4036544259</v>
+        <v>308379.0244000689</v>
       </c>
       <c r="N6" t="n">
-        <v>436804.0004701391</v>
+        <v>436456.6212157822</v>
       </c>
       <c r="O6" t="n">
-        <v>436804.0004701392</v>
+        <v>436456.6212157827</v>
       </c>
       <c r="P6" t="n">
-        <v>436804.0004701394</v>
+        <v>436456.6212157824</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.946793854488</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.946793854488</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.946793854488</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>169.0268428925346</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>54.91047014090609</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.156519019379</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.50480425168773</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.504804251687439</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27539,28 +27539,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9304924685165</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
         <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.38275699775194</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.6100444894001</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.5352037822505</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
-        <v>214.6658149714593</v>
+        <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>191.8961775438522</v>
       </c>
     </row>
     <row r="5">
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>316.1032730857785</v>
+        <v>71.17112592813572</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -27675,16 +27675,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>84.84375714324716</v>
       </c>
       <c r="F7" t="n">
-        <v>103.5564970356491</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,16 +27830,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>145.3375176219527</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27912,13 +27912,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>153.8234868842191</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28028,13 +28028,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>40.62964823979924</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>46.52075676246656</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30626,7 +30626,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>537.6437863443696</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32560,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551099</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>316.2462973459355</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34219,19 +34219,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34701,22 +34701,22 @@
         <v>19.61037504168925</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347154</v>
+        <v>404.7873098246363</v>
       </c>
       <c r="L2" t="n">
         <v>554.9791258649318</v>
       </c>
       <c r="M2" t="n">
-        <v>634.29549891073</v>
+        <v>184.7819654178975</v>
       </c>
       <c r="N2" t="n">
         <v>629.779267717812</v>
       </c>
       <c r="O2" t="n">
-        <v>547.3865996076844</v>
+        <v>549.0386254516111</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239641002</v>
+        <v>232.4542190418414</v>
       </c>
       <c r="Q2" t="n">
         <v>32.99846259011593</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>118.762914151536</v>
       </c>
       <c r="K3" t="n">
-        <v>66.41934108116013</v>
+        <v>330.8845780937387</v>
       </c>
       <c r="L3" t="n">
-        <v>490.4513339702479</v>
+        <v>506.9397916541354</v>
       </c>
       <c r="M3" t="n">
-        <v>644.0790903382713</v>
+        <v>178.3740265882714</v>
       </c>
       <c r="N3" t="n">
-        <v>197.6492430871648</v>
+        <v>657.5000172658922</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131348</v>
+        <v>158.3662059364053</v>
       </c>
       <c r="P3" t="n">
         <v>426.0372609745597</v>
@@ -34938,22 +34938,22 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>607.2090238437818</v>
       </c>
       <c r="O5" t="n">
-        <v>329.822413065917</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>321.3097375071516</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
@@ -35260,10 +35260,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348621</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>395.0475418999251</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36126,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,10 +37077,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075094</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>176.264523259914</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37867,19 +37867,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1835437.627674444</v>
+        <v>1837198.15797723</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>116.8934717062758</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359321</v>
+        <v>119.3310866359323</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36059768091647</v>
+        <v>1.360597680916783</v>
       </c>
       <c r="S2" t="n">
-        <v>100.2359934050222</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7466796050973</v>
+        <v>212.7466796050974</v>
       </c>
       <c r="U2" t="n">
         <v>251.156519019379</v>
@@ -755,10 +755,10 @@
         <v>136.0785727665282</v>
       </c>
       <c r="H3" t="n">
-        <v>100.018744405379</v>
+        <v>98.51394015369114</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370735</v>
+        <v>45.84481919370744</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.11551727184605</v>
+        <v>21.62032152353366</v>
       </c>
       <c r="S3" t="n">
-        <v>148.187383735635</v>
+        <v>148.1873837356351</v>
       </c>
       <c r="T3" t="n">
         <v>195.0661150959129</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9304924685165</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.6100444894002</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>158.9500817440944</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.68847580824262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>341.7457780178011</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>133.6124711576477</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>61.59020550332201</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>66.75566224819677</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>17.69584188176898</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>328.7871882650733</v>
       </c>
       <c r="H8" t="n">
-        <v>169.7033664532629</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>158.8451251376521</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>3.043249548202934</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027318</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>41.01175877060098</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>173.2052365248857</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.6197054599894513</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.7063133373723</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="G22" t="n">
-        <v>51.3656974031032</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>63.38272884730902</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>201.7490817309711</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>190.7368854541456</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.7513807668926</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>42.53134576113725</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>28.75188085812005</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>132.6315337216692</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2063.834068182243</v>
+        <v>2165.082546369134</v>
       </c>
       <c r="C2" t="n">
-        <v>2063.834068182243</v>
+        <v>1796.120029428722</v>
       </c>
       <c r="D2" t="n">
-        <v>1705.568369575493</v>
+        <v>1437.854330821972</v>
       </c>
       <c r="E2" t="n">
         <v>1319.780116977249</v>
       </c>
       <c r="F2" t="n">
-        <v>908.7942121876411</v>
+        <v>908.7942121876413</v>
       </c>
       <c r="G2" t="n">
-        <v>491.6845516730792</v>
+        <v>491.6845516730795</v>
       </c>
       <c r="H2" t="n">
-        <v>173.237370687019</v>
+        <v>173.2373706870192</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>72.11519083088521</v>
+        <v>72.11519083088479</v>
       </c>
       <c r="K2" t="n">
-        <v>472.8546275572751</v>
+        <v>151.950669111821</v>
       </c>
       <c r="L2" t="n">
-        <v>1022.283962163558</v>
+        <v>701.3800037181028</v>
       </c>
       <c r="M2" t="n">
-        <v>1205.218107927276</v>
+        <v>1329.332547639724</v>
       </c>
       <c r="N2" t="n">
-        <v>1828.69958296791</v>
+        <v>1952.814022680358</v>
       </c>
       <c r="O2" t="n">
-        <v>2372.247822165005</v>
+        <v>2494.72675629197</v>
       </c>
       <c r="P2" t="n">
         <v>2602.377499016428</v>
@@ -4354,28 +4354,28 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2633.671635888808</v>
+        <v>2633.671635888807</v>
       </c>
       <c r="S2" t="n">
-        <v>2532.423157701917</v>
+        <v>2633.671635888807</v>
       </c>
       <c r="T2" t="n">
-        <v>2317.527521737172</v>
+        <v>2418.775999924062</v>
       </c>
       <c r="U2" t="n">
-        <v>2063.834068182243</v>
+        <v>2165.082546369134</v>
       </c>
       <c r="V2" t="n">
-        <v>2063.834068182243</v>
+        <v>2165.082546369134</v>
       </c>
       <c r="W2" t="n">
-        <v>2063.834068182243</v>
+        <v>2165.082546369134</v>
       </c>
       <c r="X2" t="n">
-        <v>2063.834068182243</v>
+        <v>2165.082546369134</v>
       </c>
       <c r="Y2" t="n">
-        <v>2063.834068182243</v>
+        <v>2165.082546369134</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.6504081935055</v>
+        <v>965.1304038988715</v>
       </c>
       <c r="C3" t="n">
-        <v>792.1973789123786</v>
+        <v>790.6773746177445</v>
       </c>
       <c r="D3" t="n">
-        <v>643.2629692511273</v>
+        <v>641.7429649564932</v>
       </c>
       <c r="E3" t="n">
-        <v>484.0255142456718</v>
+        <v>482.5055099510377</v>
       </c>
       <c r="F3" t="n">
-        <v>337.4909562725568</v>
+        <v>335.9709519779227</v>
       </c>
       <c r="G3" t="n">
-        <v>200.0378524679829</v>
+        <v>198.5178481733488</v>
       </c>
       <c r="H3" t="n">
-        <v>99.00881771507483</v>
+        <v>99.00881771507491</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>170.2762045496335</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>497.8519368624348</v>
+        <v>380.2766518524138</v>
       </c>
       <c r="L3" t="n">
-        <v>999.722330600029</v>
+        <v>882.1470455900073</v>
       </c>
       <c r="M3" t="n">
-        <v>1176.312616922418</v>
+        <v>1449.617702133888</v>
       </c>
       <c r="N3" t="n">
-        <v>1827.237634015651</v>
+        <v>1645.290452790181</v>
       </c>
       <c r="O3" t="n">
-        <v>1984.020177892692</v>
+        <v>2191.996692751183</v>
       </c>
       <c r="P3" t="n">
-        <v>2405.797066257506</v>
+        <v>2613.773581115997</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.727272665647</v>
+        <v>2613.207268371013</v>
       </c>
       <c r="S3" t="n">
-        <v>2465.043046670055</v>
+        <v>2463.523042375421</v>
       </c>
       <c r="T3" t="n">
-        <v>2268.006566775194</v>
+        <v>2266.48656248056</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.867009144004</v>
+        <v>2038.34700484937</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.714900912262</v>
+        <v>1803.194896617628</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.47754418406</v>
+        <v>1548.957539889426</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.626043978527</v>
+        <v>1341.106039683893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.865745213574</v>
+        <v>1133.34574091894</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>835.1734420192665</v>
+        <v>497.620600032252</v>
       </c>
       <c r="C4" t="n">
-        <v>666.2372590913596</v>
+        <v>497.620600032252</v>
       </c>
       <c r="D4" t="n">
-        <v>516.1206196790239</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E4" t="n">
-        <v>368.2075260966308</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F4" t="n">
-        <v>221.3175785987204</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
         <v>52.70091953961285</v>
@@ -4491,49 +4491,49 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131525</v>
+        <v>152.6313247131523</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039134</v>
+        <v>336.0342731039128</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856117</v>
+        <v>539.7960902856108</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066373</v>
+        <v>744.147523306636</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249429</v>
+        <v>916.8828514249415</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.167083351319</v>
+        <v>1041.167083351317</v>
       </c>
       <c r="Q4" t="n">
-        <v>1043.779963221469</v>
+        <v>1043.779963221467</v>
       </c>
       <c r="R4" t="n">
-        <v>1043.779963221469</v>
+        <v>912.8607263634867</v>
       </c>
       <c r="S4" t="n">
-        <v>1043.779963221469</v>
+        <v>912.8607263634867</v>
       </c>
       <c r="T4" t="n">
-        <v>1043.779963221469</v>
+        <v>752.3050882381389</v>
       </c>
       <c r="U4" t="n">
-        <v>1043.779963221469</v>
+        <v>752.3050882381389</v>
       </c>
       <c r="V4" t="n">
-        <v>1043.779963221469</v>
+        <v>497.620600032252</v>
       </c>
       <c r="W4" t="n">
-        <v>1043.779963221469</v>
+        <v>497.620600032252</v>
       </c>
       <c r="X4" t="n">
-        <v>1043.779963221469</v>
+        <v>497.620600032252</v>
       </c>
       <c r="Y4" t="n">
-        <v>1016.821906849506</v>
+        <v>497.620600032252</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1132.072391409515</v>
+        <v>2248.446136916521</v>
       </c>
       <c r="C5" t="n">
-        <v>763.1098744691033</v>
+        <v>1879.483619976109</v>
       </c>
       <c r="D5" t="n">
-        <v>404.8441758623528</v>
+        <v>1521.217921369358</v>
       </c>
       <c r="E5" t="n">
-        <v>404.8441758623528</v>
+        <v>1135.429668771114</v>
       </c>
       <c r="F5" t="n">
-        <v>397.8986751131493</v>
+        <v>724.4437639815067</v>
       </c>
       <c r="G5" t="n">
-        <v>52.70091953961285</v>
+        <v>307.3559822179341</v>
       </c>
       <c r="H5" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
@@ -4570,19 +4570,19 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>156.4983241075885</v>
+        <v>256.7652667212221</v>
       </c>
       <c r="L5" t="n">
-        <v>709.3115823537878</v>
+        <v>809.5785249674213</v>
       </c>
       <c r="M5" t="n">
-        <v>1341.029393337099</v>
+        <v>996.277937792829</v>
       </c>
       <c r="N5" t="n">
-        <v>1942.166326942443</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O5" t="n">
-        <v>2489.327531709521</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P5" t="n">
         <v>2600.061856959047</v>
@@ -4606,13 +4606,13 @@
         <v>2635.045976980643</v>
       </c>
       <c r="W5" t="n">
-        <v>2282.277321710528</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="X5" t="n">
-        <v>1908.811563449448</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="Y5" t="n">
-        <v>1518.672231473637</v>
+        <v>2635.045976980643</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>120.3087392029699</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L6" t="n">
-        <v>624.6702790690885</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M6" t="n">
-        <v>1265.215628536193</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N6" t="n">
-        <v>1917.389507838902</v>
+        <v>1725.692954831311</v>
       </c>
       <c r="O6" t="n">
-        <v>2466.825516591625</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P6" t="n">
         <v>2612.309035778665</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>132.7878360902098</v>
+        <v>581.5699661317573</v>
       </c>
       <c r="C7" t="n">
-        <v>132.7878360902098</v>
+        <v>412.6337832038504</v>
       </c>
       <c r="D7" t="n">
-        <v>132.7878360902098</v>
+        <v>262.5171437915146</v>
       </c>
       <c r="E7" t="n">
-        <v>70.57550729897547</v>
+        <v>262.5171437915146</v>
       </c>
       <c r="F7" t="n">
-        <v>70.57550729897547</v>
+        <v>262.5171437915146</v>
       </c>
       <c r="G7" t="n">
-        <v>70.57550729897547</v>
+        <v>262.5171437915146</v>
       </c>
       <c r="H7" t="n">
-        <v>70.57550729897547</v>
+        <v>195.0871819246492</v>
       </c>
       <c r="I7" t="n">
         <v>70.57550729897547</v>
@@ -4767,10 +4767,10 @@
         <v>763.218430961997</v>
       </c>
       <c r="X7" t="n">
-        <v>535.2288800639797</v>
+        <v>763.218430961997</v>
       </c>
       <c r="Y7" t="n">
-        <v>314.4363009204495</v>
+        <v>763.218430961997</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1761.168212069778</v>
+        <v>1908.811563449448</v>
       </c>
       <c r="C8" t="n">
-        <v>1392.205695129366</v>
+        <v>1539.849046509037</v>
       </c>
       <c r="D8" t="n">
-        <v>1033.939996522616</v>
+        <v>1181.583347902286</v>
       </c>
       <c r="E8" t="n">
-        <v>648.1517439243717</v>
+        <v>795.795095304042</v>
       </c>
       <c r="F8" t="n">
-        <v>237.1658391347641</v>
+        <v>384.8091905144344</v>
       </c>
       <c r="G8" t="n">
-        <v>224.1184614115956</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H8" t="n">
         <v>52.70091953961285</v>
@@ -4831,25 +4831,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.7680521339</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="W8" t="n">
-        <v>2147.7680521339</v>
+        <v>2282.277321710528</v>
       </c>
       <c r="X8" t="n">
-        <v>2147.7680521339</v>
+        <v>1908.811563449448</v>
       </c>
       <c r="Y8" t="n">
-        <v>2147.7680521339</v>
+        <v>1908.811563449448</v>
       </c>
     </row>
     <row r="9">
@@ -4892,7 +4892,7 @@
         <v>1005.150115568437</v>
       </c>
       <c r="M9" t="n">
-        <v>1184.647451923042</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N9" t="n">
         <v>1430.928743686615</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>666.5567829601589</v>
+        <v>794.8771233504416</v>
       </c>
       <c r="C10" t="n">
-        <v>497.620600032252</v>
+        <v>794.8771233504416</v>
       </c>
       <c r="D10" t="n">
-        <v>347.5039606199163</v>
+        <v>794.8771233504416</v>
       </c>
       <c r="E10" t="n">
-        <v>199.5908670375232</v>
+        <v>646.9640297680485</v>
       </c>
       <c r="F10" t="n">
-        <v>52.70091953961285</v>
+        <v>500.0740822701381</v>
       </c>
       <c r="G10" t="n">
-        <v>52.70091953961285</v>
+        <v>331.4672372655215</v>
       </c>
       <c r="H10" t="n">
-        <v>52.70091953961285</v>
+        <v>177.2125941652866</v>
       </c>
       <c r="I10" t="n">
         <v>52.70091953961285</v>
@@ -4989,25 +4989,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S10" t="n">
-        <v>892.1859796477939</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T10" t="n">
-        <v>666.5567829601589</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U10" t="n">
-        <v>666.5567829601589</v>
+        <v>1049.561611556328</v>
       </c>
       <c r="V10" t="n">
-        <v>666.5567829601589</v>
+        <v>794.8771233504416</v>
       </c>
       <c r="W10" t="n">
-        <v>666.5567829601589</v>
+        <v>794.8771233504416</v>
       </c>
       <c r="X10" t="n">
-        <v>666.5567829601589</v>
+        <v>794.8771233504416</v>
       </c>
       <c r="Y10" t="n">
-        <v>666.5567829601589</v>
+        <v>794.8771233504416</v>
       </c>
     </row>
     <row r="11">
@@ -5020,28 +5020,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5050,40 +5050,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,25 +5293,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,19 +5351,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
         <v>1520.445529061503</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3584617859342</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>597.2418223735984</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>449.3287287912053</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>302.4387812932949</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>135.2426820081749</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>135.2426820081749</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1972.677130397315</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1683.259960360355</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1455.270409462337</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5509,37 +5509,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>870.3164745246301</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>701.3802915967232</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>551.2636521843874</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>403.3505586019943</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>403.3505586019943</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>236.1544593168742</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>94.44262815907234</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2330.088019603117</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2110.486554626058</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1821.411327970255</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1566.726839764368</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1277.309669727408</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>1272.7575184984</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>1051.96493935487</v>
       </c>
     </row>
     <row r="20">
@@ -5746,34 +5746,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098237</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819168</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695811</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E22" t="n">
-        <v>516.389687887188</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F22" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640063</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>613.6374994204294</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,19 +6238,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1479.814952498107</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879355</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443774</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>718.5507239167111</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2401.759668664207</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2401.759668664207</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2182.158203687148</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1893.082977031346</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1638.398488825459</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1348.981318788498</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1120.991767890481</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>900.1991887469509</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6919,25 +6919,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6949,19 +6949,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>2191.112710026075</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820188</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,19 +7186,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400712</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="41">
@@ -7405,37 +7405,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7639,22 +7639,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>379.1481554188241</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7160950777412</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>7.328121188873055</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>394.8286567893866</v>
       </c>
       <c r="N3" t="n">
-        <v>459.8507741787274</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>101.2797400137713</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>410.9118391044057</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>306.1979795936944</v>
       </c>
       <c r="P6" t="n">
-        <v>37.16554713105234</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263525</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>-1.093502476537661e-13</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>40.25407754796456</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>45.37941682720913</v>
       </c>
     </row>
     <row r="17">
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>80.64613085857607</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>65.31997266427226</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G22" t="n">
-        <v>114.1584408891656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>83.05123379926015</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>84.77391660561992</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>34.97276993489152</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.62386594322908</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>102.889702261794</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>84.77391660561906</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.85445046951749</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>180.5336875992868</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>942669.7381552059</v>
+        <v>942669.738155206</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>873782.0343168799</v>
+        <v>873782.03431688</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>873782.0343168799</v>
+        <v>873782.03431688</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>873782.03431688</v>
+        <v>873782.0343168799</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>873782.0343168799</v>
+        <v>873782.03431688</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>873782.0343168799</v>
+        <v>873782.0343168798</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>873782.03431688</v>
+        <v>873782.0343168799</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>873782.0343168799</v>
+        <v>873782.03431688</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583915</v>
@@ -26322,25 +26322,25 @@
         <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="F2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="G2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.954790754</v>
       </c>
       <c r="H2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907535</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="L2" t="n">
         <v>544823.9547907538</v>
@@ -26349,13 +26349,13 @@
         <v>544823.9547907541</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="O2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918878</v>
+        <v>787455.5478918864</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.24700849981</v>
+        <v>4906.247008500982</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765845</v>
+        <v>775688.3472765849</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172360.9924002808</v>
+        <v>172360.9924002809</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157138</v>
+        <v>128077.5968157139</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909052</v>
+        <v>190891.9800909054</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
       </c>
       <c r="D4" t="n">
-        <v>189891.8124216189</v>
+        <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.42449670733</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707333</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707328</v>
+      </c>
+      <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="F4" t="n">
+      <c r="N4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="O4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="G4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.424496707359</v>
-      </c>
       <c r="P4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051735</v>
+        <v>86500.62127051732</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-510644.9545949193</v>
+        <v>-510644.9545949181</v>
       </c>
       <c r="C6" t="n">
-        <v>272787.0573907973</v>
+        <v>272787.0573907961</v>
       </c>
       <c r="D6" t="n">
         <v>277693.3043992971</v>
       </c>
       <c r="E6" t="n">
-        <v>-339231.7260608022</v>
+        <v>-338919.084731881</v>
       </c>
       <c r="F6" t="n">
-        <v>436456.6212157824</v>
+        <v>436769.2625447041</v>
       </c>
       <c r="G6" t="n">
-        <v>436456.6212157825</v>
+        <v>436769.2625447037</v>
       </c>
       <c r="H6" t="n">
-        <v>436456.6212157825</v>
+        <v>436769.2625447038</v>
       </c>
       <c r="I6" t="n">
-        <v>436456.6212157822</v>
+        <v>436769.2625447038</v>
       </c>
       <c r="J6" t="n">
-        <v>264095.6288155017</v>
+        <v>264408.2701444229</v>
       </c>
       <c r="K6" t="n">
-        <v>436456.6212157821</v>
+        <v>436769.262544704</v>
       </c>
       <c r="L6" t="n">
-        <v>436456.6212157823</v>
+        <v>436769.2625447037</v>
       </c>
       <c r="M6" t="n">
-        <v>308379.0244000689</v>
+        <v>308691.66572899</v>
       </c>
       <c r="N6" t="n">
-        <v>436456.6212157822</v>
+        <v>436769.2625447039</v>
       </c>
       <c r="O6" t="n">
-        <v>436456.6212157827</v>
+        <v>436769.2625447039</v>
       </c>
       <c r="P6" t="n">
-        <v>436456.6212157824</v>
+        <v>436769.262544704</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225501</v>
+        <v>588.0881844225488</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26798,13 +26798,13 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225501</v>
+        <v>588.0881844225488</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915515022</v>
+        <v>5.387915915516309</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036091</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.946793854488</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451609</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.946793854488</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>265.036898365986</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.91047014090609</v>
+        <v>155.1464635459284</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.504804251687844</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.504804251687439</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
         <v>152.7984799768616</v>
@@ -27560,7 +27560,7 @@
         <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775194</v>
+        <v>18.3827569977521</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894001</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>205.5352037822505</v>
       </c>
       <c r="T4" t="n">
-        <v>223.4144181712553</v>
+        <v>64.46433642716093</v>
       </c>
       <c r="U4" t="n">
         <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>191.8961775438522</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>71.17112592813572</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>181.4284129175678</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>84.84375714324716</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,10 +27791,10 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>85.95643442103578</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>84.12971568086346</v>
       </c>
       <c r="H8" t="n">
-        <v>145.3375176219527</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27912,13 +27912,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28013,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28061,16 +28061,16 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>46.52075676246656</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>283.2174051098941</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718793</v>
+        <v>2.364173605718787</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956759</v>
+        <v>24.21209293956754</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447383</v>
+        <v>91.14480293447365</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683755</v>
+        <v>200.6562795683751</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984521</v>
+        <v>300.7317482984515</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844687</v>
+        <v>373.0843262844679</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451702</v>
+        <v>415.1281986451693</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024187</v>
+        <v>421.8454069024179</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105525</v>
+        <v>398.3366556105516</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193698</v>
+        <v>339.971119719369</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645654</v>
+        <v>255.3041524645649</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602332</v>
+        <v>148.5085202602329</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031704</v>
+        <v>53.87360604031692</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903402</v>
+        <v>10.349169959034</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575034</v>
+        <v>0.189133888457503</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682466</v>
+        <v>1.264944396682464</v>
       </c>
       <c r="H3" t="n">
-        <v>12.2166998311175</v>
+        <v>12.21669983111748</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770773</v>
+        <v>43.55181365770763</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777939</v>
+        <v>119.5095054777936</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555191</v>
+        <v>204.2607800555187</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305504</v>
+        <v>274.6538261305498</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102897</v>
+        <v>320.5080605102891</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704981</v>
+        <v>328.9909551704974</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808498</v>
+        <v>300.9624503808491</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489527</v>
+        <v>241.5488997489522</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361689</v>
+        <v>161.4690426361685</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910964</v>
+        <v>78.53751262910947</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820281</v>
+        <v>23.49578736820276</v>
       </c>
       <c r="T3" t="n">
-        <v>5.09861359890871</v>
+        <v>5.0986135989087</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753071</v>
+        <v>0.08322002609753053</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942303</v>
+        <v>1.060486889942301</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577939</v>
+        <v>9.428692530577919</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753764</v>
+        <v>31.89173301753757</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892083</v>
+        <v>74.97642311892068</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314785</v>
+        <v>123.2092950314782</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646948</v>
+        <v>157.6654781646945</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934103</v>
+        <v>166.23614039341</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308982</v>
+        <v>162.2834165308979</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983903</v>
+        <v>149.89500149839</v>
       </c>
       <c r="P4" t="n">
-        <v>128.2610689435672</v>
+        <v>128.261068943567</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780506</v>
+        <v>88.80131584780487</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776937</v>
+        <v>47.68334688776927</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472177</v>
+        <v>18.48139425472173</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026203</v>
+        <v>4.531171257026194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139842</v>
+        <v>0.05784473945139831</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>726.7533607666126</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.61037504168925</v>
+        <v>19.61037504168883</v>
       </c>
       <c r="K2" t="n">
-        <v>404.7873098246363</v>
+        <v>80.64189725347092</v>
       </c>
       <c r="L2" t="n">
-        <v>554.9791258649318</v>
+        <v>554.9791258649311</v>
       </c>
       <c r="M2" t="n">
-        <v>184.7819654178975</v>
+        <v>634.2954989107291</v>
       </c>
       <c r="N2" t="n">
-        <v>629.779267717812</v>
+        <v>629.7792677178111</v>
       </c>
       <c r="O2" t="n">
-        <v>549.0386254516111</v>
+        <v>547.386599607689</v>
       </c>
       <c r="P2" t="n">
-        <v>232.4542190418414</v>
+        <v>108.7381239640995</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011593</v>
+        <v>32.99846259011539</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>118.762914151536</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937387</v>
+        <v>330.8845780937383</v>
       </c>
       <c r="L3" t="n">
-        <v>506.9397916541354</v>
+        <v>506.9397916541348</v>
       </c>
       <c r="M3" t="n">
-        <v>178.3740265882714</v>
+        <v>573.2026833776573</v>
       </c>
       <c r="N3" t="n">
-        <v>657.5000172658922</v>
+        <v>197.6492430871641</v>
       </c>
       <c r="O3" t="n">
-        <v>158.3662059364053</v>
+        <v>552.2285252131342</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745597</v>
+        <v>426.0372609745591</v>
       </c>
       <c r="Q3" t="n">
-        <v>231.5645562859964</v>
+        <v>21.48726855014701</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055956</v>
+        <v>100.9398032055954</v>
       </c>
       <c r="L4" t="n">
-        <v>185.255503425011</v>
+        <v>185.2555034250106</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552509</v>
+        <v>205.8200173552505</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101268</v>
+        <v>206.4155889101264</v>
       </c>
       <c r="O4" t="n">
-        <v>174.48012941243</v>
+        <v>174.4801294124297</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084607</v>
+        <v>125.5396282084605</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110672</v>
+        <v>2.639272596110487</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>184.6768658466929</v>
       </c>
       <c r="L5" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>607.2090238437818</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
@@ -35026,13 +35026,13 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>467.3215277439576</v>
       </c>
       <c r="P6" t="n">
-        <v>146.9530496838794</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
         <v>22.96660727472423</v>
@@ -35260,10 +35260,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793672</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>584.6193268445942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
